--- a/edades.xlsx
+++ b/edades.xlsx
@@ -118,6 +118,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -201,11 +202,11 @@
   </sheetPr>
   <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A128" activeCellId="0" sqref="A128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
